--- a/Final Data Tables for Paper/Final_model_results_tables.xlsx
+++ b/Final Data Tables for Paper/Final_model_results_tables.xlsx
@@ -1406,4 +1406,515 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025B2D896F1451C4E99B9E45AFD745A64" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8bf06e643522075826e955c60122ae06">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3" xmlns:ns6="3e92ab77-7e33-43b2-b777-c9aeba6762dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="006efce6f10fbfa8be5e112fbde8d508" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <xsd:import namespace="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3"/>
+    <xsd:import namespace="3e92ab77-7e33-43b2-b777-c9aeba6762dd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:Document_x0020_Creation_x0020_Date" minOccurs="0"/>
+                <xsd:element ref="ns2:Creator" minOccurs="0"/>
+                <xsd:element ref="ns2:EPA_x0020_Office" minOccurs="0"/>
+                <xsd:element ref="ns2:Record" minOccurs="0"/>
+                <xsd:element ref="ns3:CategoryDescription" minOccurs="0"/>
+                <xsd:element ref="ns2:Identifier" minOccurs="0"/>
+                <xsd:element ref="ns2:EPA_x0020_Contributor" minOccurs="0"/>
+                <xsd:element ref="ns2:External_x0020_Contributor" minOccurs="0"/>
+                <xsd:element ref="ns4:_Coverage" minOccurs="0"/>
+                <xsd:element ref="ns2:EPA_x0020_Related_x0020_Documents" minOccurs="0"/>
+                <xsd:element ref="ns4:_Source" minOccurs="0"/>
+                <xsd:element ref="ns2:Rights" minOccurs="0"/>
+                <xsd:element ref="ns1:Language" minOccurs="0"/>
+                <xsd:element ref="ns2:j747ac98061d40f0aa7bd47e1db5675d" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxKeywordTaxHTField" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns6:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns6:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns5:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Language" ma:index="17" nillable="true" ma:displayName="Language" ma:default="English" ma:description="Select the document language from the drop down." ma:format="Dropdown" ma:internalName="Language" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Arabic (Saudi Arabia)"/>
+          <xsd:enumeration value="Bulgarian (Bulgaria)"/>
+          <xsd:enumeration value="Chinese (Hong Kong S.A.R.)"/>
+          <xsd:enumeration value="Chinese (People's Republic of China)"/>
+          <xsd:enumeration value="Chinese (Taiwan)"/>
+          <xsd:enumeration value="Croatian (Croatia)"/>
+          <xsd:enumeration value="Czech (Czech Republic)"/>
+          <xsd:enumeration value="Danish (Denmark)"/>
+          <xsd:enumeration value="Dutch (Netherlands)"/>
+          <xsd:enumeration value="English"/>
+          <xsd:enumeration value="Estonian (Estonia)"/>
+          <xsd:enumeration value="Finnish (Finland)"/>
+          <xsd:enumeration value="French (France)"/>
+          <xsd:enumeration value="German (Germany)"/>
+          <xsd:enumeration value="Greek (Greece)"/>
+          <xsd:enumeration value="Hebrew (Israel)"/>
+          <xsd:enumeration value="Hindi (India)"/>
+          <xsd:enumeration value="Hungarian (Hungary)"/>
+          <xsd:enumeration value="Indonesian (Indonesia)"/>
+          <xsd:enumeration value="Italian (Italy)"/>
+          <xsd:enumeration value="Japanese (Japan)"/>
+          <xsd:enumeration value="Korean (Korea)"/>
+          <xsd:enumeration value="Latvian (Latvia)"/>
+          <xsd:enumeration value="Lithuanian (Lithuania)"/>
+          <xsd:enumeration value="Malay (Malaysia)"/>
+          <xsd:enumeration value="Norwegian (Bokmal) (Norway)"/>
+          <xsd:enumeration value="Polish (Poland)"/>
+          <xsd:enumeration value="Portuguese (Brazil)"/>
+          <xsd:enumeration value="Portuguese (Portugal)"/>
+          <xsd:enumeration value="Romanian (Romania)"/>
+          <xsd:enumeration value="Russian (Russia)"/>
+          <xsd:enumeration value="Serbian (Latin) (Serbia)"/>
+          <xsd:enumeration value="Slovak (Slovakia)"/>
+          <xsd:enumeration value="Slovenian (Slovenia)"/>
+          <xsd:enumeration value="Spanish (Spain)"/>
+          <xsd:enumeration value="Swedish (Sweden)"/>
+          <xsd:enumeration value="Thai (Thailand)"/>
+          <xsd:enumeration value="Turkish (Turkey)"/>
+          <xsd:enumeration value="Ukrainian (Ukraine)"/>
+          <xsd:enumeration value="Urdu (Islamic Republic of Pakistan)"/>
+          <xsd:enumeration value="Vietnamese (Vietnam)"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Document_x0020_Creation_x0020_Date" ma:index="2" nillable="true" ma:displayName="Document Date" ma:default="[today]" ma:description="Enter the date this document was last modified. The upload date has been entered by default." ma:format="DateOnly" ma:internalName="Document_x0020_Creation_x0020_Date" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Creator" ma:index="3" nillable="true" ma:displayName="Creator" ma:description="Enter the person primarily responsible for the document. The name of the person uploading the document has been entered by default." ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="Creator" ma:readOnly="false" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="EPA_x0020_Office" ma:index="4" nillable="true" ma:displayName="EPA Office" ma:description="Enter the EPA organization primarily responsible for the document. The office of the person uploading the document has been entered by default." ma:internalName="EPA_x0020_Office" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Record" ma:index="5" nillable="true" ma:displayName="Record" ma:default="Shared" ma:description="For documents that provide evidence of EPA decisions and actions, select &quot;Shared&quot; (open access) or &quot;Private&quot; (restricted access)." ma:format="Dropdown" ma:internalName="Record">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="None"/>
+          <xsd:enumeration value="Shared"/>
+          <xsd:enumeration value="Private"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Identifier" ma:index="9" nillable="true" ma:displayName="Identifier" ma:description="Enter all EPA identification numbers applicable to this document, one on each line." ma:internalName="Identifier" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="EPA_x0020_Contributor" ma:index="11" nillable="true" ma:displayName="EPA Contributor" ma:description="Enter an EPA person who contributed to the creation of the document but is not the primary author." ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="EPA_x0020_Contributor" ma:readOnly="false" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="External_x0020_Contributor" ma:index="12" nillable="true" ma:displayName="External Contributor" ma:description="Enter a non-EPA person who contributed to the creation of the document but is not the primary author." ma:internalName="External_x0020_Contributor" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="EPA_x0020_Related_x0020_Documents" ma:index="14" nillable="true" ma:displayName="Other Related Documents" ma:description="Enter any related document." ma:internalName="EPA_x0020_Related_x0020_Documents" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Rights" ma:index="16" nillable="true" ma:displayName="Rights" ma:description="Enter information about intellectual property rights held over the document (e.g. copyright, patent, trademark)." ma:internalName="Rights" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="j747ac98061d40f0aa7bd47e1db5675d" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="j747ac98061d40f0aa7bd47e1db5675d" ma:taxonomyFieldName="Document_x0020_Type" ma:displayName="Document Type" ma:readOnly="false" ma:default="" ma:fieldId="{3747ac98-061d-40f0-aa7b-d47e1db5675d}" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="e06cd6a9-a175-4da0-81cb-8dba7aa394ab" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxKeywordTaxHTField" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:readOnly="false" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{19a604ca-da12-42df-86e7-44443f711029}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="3e92ab77-7e33-43b2-b777-c9aeba6762dd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{19a604ca-da12-42df-86e7-44443f711029}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="3e92ab77-7e33-43b2-b777-c9aeba6762dd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint.v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="CategoryDescription" ma:index="6" nillable="true" ma:displayName="Description" ma:description="Enter a brief description." ma:internalName="CategoryDescription" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3/fields" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_Coverage" ma:index="13" nillable="true" ma:displayName="Coverage" ma:description="Enter the geographic location, jurisdiction, or time period for which the document is relevant." ma:internalName="_Coverage" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Source" ma:index="15" nillable="true" ma:displayName="Source" ma:description="Enter a source from which the document is derived." ma:internalName="_Source" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="28" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="29" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="30" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="33" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="34" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="36" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="37" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="38" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="39" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3e92ab77-7e33-43b2-b777-c9aeba6762dd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="31" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="32" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="25" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2024-09-18T20:29:15+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E0FB74-9F39-4978-B39A-FBA0B8202951}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462E3C71-DA63-48C6-8EB4-0863893DBCCC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFBBE83-4A07-4BDF-81E0-87FA0B9001CE}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98317281-7A60-4A60-892E-37B8605B03B1}"/>
 </file>
--- a/Final Data Tables for Paper/Final_model_results_tables.xlsx
+++ b/Final Data Tables for Paper/Final_model_results_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/PowerNutrientHydroTeam/Shared Documents/General/Matt's Work/Manuscripts/ES&amp;T_Letters_CONUS_Modeling/Final Manuscript Submission Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5498412D-C89B-4D41-9D4A-AEDC878ED07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{5498412D-C89B-4D41-9D4A-AEDC878ED07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA1808B-D113-466B-BBA7-771D80E541A8}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{476E1658-E14C-4999-A63B-AC499C5972CA}"/>
   </bookViews>
@@ -131,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +155,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -172,26 +210,283 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +805,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,674 +818,674 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="39">
         <v>-2.089596E-4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="39">
         <v>0.190688</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="39">
         <v>0.43667840000000002</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="39">
         <v>0.36471419999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="39">
         <v>0.32258890000000001</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="39">
         <v>0.77456429999999998</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="39">
         <v>0.7158949</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="43">
         <v>3.521113E-4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="43">
         <v>0.17698230000000001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="43">
         <v>0.42069260000000003</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="43">
         <v>0.3308526</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="43">
         <v>0.28203889999999998</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="43">
         <v>0.8075772</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="43">
         <v>0.74142680000000005</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="43">
         <v>-1.0308129999999999E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="43">
         <v>0.19182779999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="43">
         <v>0.43798150000000002</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="43">
         <v>0.38326110000000002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="43">
         <v>0.3197564</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="43">
         <v>0.76866659999999998</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="43">
         <v>0.71539419999999998</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="47">
         <v>-4.038345E-4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="47">
         <v>0.16398589999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="47">
         <v>0.40495170000000003</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="47">
         <v>0.32788850000000003</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="47">
         <v>0.26476230000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="47">
         <v>0.83103070000000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="47">
         <v>0.76921150000000005</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="31">
         <v>-9.1991570000000007E-5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="31">
         <v>0.18108920000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="31">
         <v>0.42554579999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="31">
         <v>0.3306192</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="31">
         <v>0.26187700000000003</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="31">
         <v>0.80659840000000005</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="31">
         <v>0.73351279999999996</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="35">
         <v>-1.2218260000000001E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="35">
         <v>0.1366069</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="35">
         <v>0.36960369999999998</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="35">
         <v>0.254075</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="35">
         <v>0.16662099999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="35">
         <v>0.88685720000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="35">
         <v>0.80529390000000001</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="35">
         <v>-2.108496E-4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="35">
         <v>0.17482539999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="35">
         <v>0.41812129999999997</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="35">
         <v>0.35044360000000002</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="35">
         <v>0.2754122</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="35">
         <v>0.81378479999999997</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="35">
         <v>0.75011220000000001</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="51">
         <v>6.3138669999999997E-5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="51">
         <v>0.121044</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="51">
         <v>0.3479138</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="51">
         <v>0.2400591</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="51">
         <v>0.137687</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="51">
         <v>0.91004039999999997</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="51">
         <v>0.82368779999999997</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="52" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="23">
         <v>6.8043209999999995E-4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="23">
         <v>0.19486200000000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="23">
         <v>0.44143169999999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="23">
         <v>0.38166</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="23">
         <v>0.37661489999999997</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="23">
         <v>0.76258340000000002</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="23">
         <v>0.68730369999999996</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="27">
         <v>4.1643849999999996E-3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="27">
         <v>0.1304274</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="27">
         <v>0.3611473</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="27">
         <v>0.25748779999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="27">
         <v>0.18578919999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="27">
         <v>0.89455569999999995</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="27">
         <v>0.81022879999999997</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="27">
         <v>5.8443229999999998E-5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="27">
         <v>0.20013909999999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="27">
         <v>0.44736910000000002</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="27">
         <v>0.40116230000000003</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="27">
         <v>0.41298760000000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="27">
         <v>0.7499074</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="27">
         <v>0.68999549999999998</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="55">
         <v>1.6758070000000001E-3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="55">
         <v>0.12419330000000001</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="55">
         <v>0.35241070000000002</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="55">
         <v>0.24460779999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="55">
         <v>0.1402699</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="55">
         <v>0.90626280000000004</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="55">
         <v>0.81561240000000002</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="15">
         <v>-1.8224769999999999E-4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="15">
         <v>0.18734139999999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="15">
         <v>0.43282949999999998</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="15">
         <v>0.34362969999999998</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="15">
         <v>0.28802860000000002</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="15">
         <v>0.7946529</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="15">
         <v>0.7263347</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="19">
         <v>-2.8787048E-3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="19">
         <v>0.14998880000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="19">
         <v>0.38728390000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="19">
         <v>0.27467320000000001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="19">
         <v>0.1979041</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="19">
         <v>0.86561410000000005</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="19">
         <v>0.7815164</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="19">
         <v>-1.731305E-4</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="19">
         <v>0.18484999999999999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="19">
         <v>0.42994179999999999</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="19">
         <v>0.36938959999999998</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="19">
         <v>0.30771949999999998</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="19">
         <v>0.79256649999999995</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="19">
         <v>0.73575590000000002</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="59">
         <v>-6.6118670000000004E-4</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="59">
         <v>0.13066749999999999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="59">
         <v>0.36147960000000001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="59">
         <v>0.25995049999999997</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="59">
         <v>0.16657910000000001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="59">
         <v>0.89570720000000004</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="59">
         <v>0.81157469999999998</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="60" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>-2.8802260000000001E-3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>0.15264459999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>0.39069749999999998</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="7">
         <v>0.2808176</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="7">
         <v>0.18443889999999999</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
         <v>0.77297950000000004</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <v>0.79138629999999999</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="11">
         <v>-1.1835419999999999E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="11">
         <v>0.1215126</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="11">
         <v>0.34858660000000002</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="11">
         <v>0.228384</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="11">
         <v>0.13357849999999999</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="11">
         <v>0.85754439999999998</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="11">
         <v>0.83580080000000001</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="11">
         <v>-9.8048389999999994E-5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="11">
         <v>0.153833</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="11">
         <v>0.3922156</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="11">
         <v>0.3079095</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="11">
         <v>0.2369347</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="11">
         <v>0.77797870000000002</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="11">
         <v>0.76536559999999998</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="63">
         <v>2.684133E-3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="63">
         <v>0.10622470000000001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="63">
         <v>0.32592130000000002</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="63">
         <v>0.2114386</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="63">
         <v>0.1037732</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="63">
         <v>0.89061049999999997</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="63">
         <v>0.86271869999999995</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="64" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1217,189 +1512,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>-1.4919999999999999E-2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.10364</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.3871</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>-1.6721999999999999</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>-3.109E-2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.21525</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.52400999999999998</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>7.467E-2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.21803</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>-2.3085300000000002</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>-2.5850000000000001E-2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>-4.1599999999999996E-3</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>2.0203000000000002</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>-1.337E-2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>-1.406E-2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>-0.23979</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1848,20 +2143,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -1903,18 +2184,69 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E0FB74-9F39-4978-B39A-FBA0B8202951}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E0FB74-9F39-4978-B39A-FBA0B8202951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3"/>
+    <ds:schemaRef ds:uri="3e92ab77-7e33-43b2-b777-c9aeba6762dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462E3C71-DA63-48C6-8EB4-0863893DBCCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98317281-7A60-4A60-892E-37B8605B03B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFBBE83-4A07-4BDF-81E0-87FA0B9001CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFBBE83-4A07-4BDF-81E0-87FA0B9001CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98317281-7A60-4A60-892E-37B8605B03B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462E3C71-DA63-48C6-8EB4-0863893DBCCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Final Data Tables for Paper/Final_model_results_tables.xlsx
+++ b/Final Data Tables for Paper/Final_model_results_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/PowerNutrientHydroTeam/Shared Documents/General/Matt's Work/Manuscripts/ES&amp;T_Letters_CONUS_Modeling/Final Manuscript Submission Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{5498412D-C89B-4D41-9D4A-AEDC878ED07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA1808B-D113-466B-BBA7-771D80E541A8}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{5498412D-C89B-4D41-9D4A-AEDC878ED07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D4DC60-1B6B-4BC1-936D-2A164B3CD775}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{476E1658-E14C-4999-A63B-AC499C5972CA}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{476E1658-E14C-4999-A63B-AC499C5972CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ten-fold cross validation" sheetId="1" r:id="rId1"/>
@@ -81,18 +81,6 @@
     <t>Chl-a</t>
   </si>
   <si>
-    <t>TN50</t>
-  </si>
-  <si>
-    <t>TN75</t>
-  </si>
-  <si>
-    <t>TP50</t>
-  </si>
-  <si>
-    <t>TP75</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -124,6 +112,18 @@
   </si>
   <si>
     <t>RUNOFF_SPRING_HIST_HUC12</t>
+  </si>
+  <si>
+    <t>TN High</t>
+  </si>
+  <si>
+    <t>TN Very High</t>
+  </si>
+  <si>
+    <t>TP High</t>
+  </si>
+  <si>
+    <t>TP Very High</t>
   </si>
 </sst>
 </file>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,18 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,18 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,30 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,6 +438,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0628DE88-7910-4C3B-AD4C-91F8F310C5F6}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +802,7 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -850,259 +838,259 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="35">
         <v>-2.089596E-4</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="35">
         <v>0.190688</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="35">
         <v>0.43667840000000002</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="35">
         <v>0.36471419999999999</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="35">
         <v>0.32258890000000001</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="35">
         <v>0.77456429999999998</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="35">
         <v>0.7158949</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="39">
         <v>3.521113E-4</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="39">
         <v>0.17698230000000001</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="39">
         <v>0.42069260000000003</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="39">
         <v>0.3308526</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="39">
         <v>0.28203889999999998</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="39">
         <v>0.8075772</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="39">
         <v>0.74142680000000005</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="39">
         <v>-1.0308129999999999E-5</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="39">
         <v>0.19182779999999999</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <v>0.43798150000000002</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="39">
         <v>0.38326110000000002</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <v>0.3197564</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="39">
         <v>0.76866659999999998</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="39">
         <v>0.71539419999999998</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="52">
         <v>-4.038345E-4</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="52">
         <v>0.16398589999999999</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="52">
         <v>0.40495170000000003</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="52">
         <v>0.32788850000000003</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="52">
         <v>0.26476230000000001</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="52">
         <v>0.83103070000000001</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="52">
         <v>0.76921150000000005</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>-9.1991570000000007E-5</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>0.18108920000000001</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>0.42554579999999997</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="27">
         <v>0.3306192</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="27">
         <v>0.26187700000000003</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>0.80659840000000005</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="27">
         <v>0.73351279999999996</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>14</v>
+      <c r="J6" s="28" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="31">
         <v>-1.2218260000000001E-3</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="31">
         <v>0.1366069</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>0.36960369999999998</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <v>0.254075</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <v>0.16662099999999999</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="31">
         <v>0.88685720000000001</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="31">
         <v>0.80529390000000001</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>14</v>
+      <c r="J7" s="32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="31">
         <v>-2.108496E-4</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="31">
         <v>0.17482539999999999</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="31">
         <v>0.41812129999999997</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="31">
         <v>0.35044360000000002</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="31">
         <v>0.2754122</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="31">
         <v>0.81378479999999997</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="31">
         <v>0.75011220000000001</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>14</v>
+      <c r="J8" s="32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="43">
         <v>6.3138669999999997E-5</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="43">
         <v>0.121044</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="43">
         <v>0.3479138</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="43">
         <v>0.2400591</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="43">
         <v>0.137687</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="43">
         <v>0.91004039999999997</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="43">
         <v>0.82368779999999997</v>
       </c>
-      <c r="J9" s="52" t="s">
-        <v>14</v>
+      <c r="J9" s="44" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1134,103 +1122,103 @@
         <v>0.68730369999999996</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>4.1643849999999996E-3</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="23">
         <v>0.1304274</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="23">
         <v>0.3611473</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="23">
         <v>0.25748779999999999</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="23">
         <v>0.18578919999999999</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="23">
         <v>0.89455569999999995</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="23">
         <v>0.81022879999999997</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>15</v>
+      <c r="J11" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="23">
         <v>5.8443229999999998E-5</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="23">
         <v>0.20013909999999999</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="23">
         <v>0.44736910000000002</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="23">
         <v>0.40116230000000003</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="23">
         <v>0.41298760000000001</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="23">
         <v>0.7499074</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="23">
         <v>0.68999549999999998</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>15</v>
+      <c r="J12" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="57">
         <v>1.6758070000000001E-3</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="57">
         <v>0.12419330000000001</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="57">
         <v>0.35241070000000002</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="57">
         <v>0.24460779999999999</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="57">
         <v>0.1402699</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="57">
         <v>0.90626280000000004</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="57">
         <v>0.81561240000000002</v>
       </c>
-      <c r="J13" s="56" t="s">
-        <v>15</v>
+      <c r="J13" s="53" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,7 +1250,7 @@
         <v>0.7263347</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1294,7 +1282,7 @@
         <v>0.7815164</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1326,39 +1314,39 @@
         <v>0.73575590000000002</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="60">
         <v>-6.6118670000000004E-4</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="60">
         <v>0.13066749999999999</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="60">
         <v>0.36147960000000001</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="60">
         <v>0.25995049999999997</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="60">
         <v>0.16657910000000001</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="60">
         <v>0.89570720000000004</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="60">
         <v>0.81157469999999998</v>
       </c>
-      <c r="J17" s="60" t="s">
-        <v>16</v>
+      <c r="J17" s="54" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1390,7 +1378,7 @@
         <v>0.79138629999999999</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,7 +1410,7 @@
         <v>0.83580080000000001</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1454,39 +1442,39 @@
         <v>0.76536559999999998</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="47">
         <v>2.684133E-3</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="47">
         <v>0.10622470000000001</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="47">
         <v>0.32592130000000002</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="47">
         <v>0.2114386</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="47">
         <v>0.1037732</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="47">
         <v>0.89061049999999997</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="47">
         <v>0.86271869999999995</v>
       </c>
-      <c r="J21" s="64" t="s">
-        <v>17</v>
+      <c r="J21" s="48" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1500,31 +1488,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB7ED10-01DE-4C50-96CC-9516C33B7BC2}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>-1.4919999999999999E-2</v>
@@ -1535,7 +1523,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>0.10364</v>
@@ -1546,7 +1534,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>0.3871</v>
@@ -1557,7 +1545,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>-1.6721999999999999</v>
@@ -1568,134 +1556,134 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>-3.109E-2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>0.21525</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>0.52400999999999998</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>7.467E-2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>0.21803</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>-2.3085300000000002</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>-2.5850000000000001E-2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>-4.1599999999999996E-3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>2.0203000000000002</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>-1.337E-2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>-1.406E-2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>-0.23979</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2143,6 +2131,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -2184,20 +2186,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E0FB74-9F39-4978-B39A-FBA0B8202951}">
   <ds:schemaRefs>
@@ -2222,15 +2210,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98317281-7A60-4A60-892E-37B8605B03B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462E3C71-DA63-48C6-8EB4-0863893DBCCC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2244,9 +2226,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462E3C71-DA63-48C6-8EB4-0863893DBCCC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98317281-7A60-4A60-892E-37B8605B03B1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Final Data Tables for Paper/Final_model_results_tables.xlsx
+++ b/Final Data Tables for Paper/Final_model_results_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/PowerNutrientHydroTeam/Shared Documents/General/Matt's Work/Manuscripts/ES&amp;T_Letters_CONUS_Modeling/Final Manuscript Submission Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{5498412D-C89B-4D41-9D4A-AEDC878ED07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D4DC60-1B6B-4BC1-936D-2A164B3CD775}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{5498412D-C89B-4D41-9D4A-AEDC878ED07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D07B21-95F2-4089-9C8B-31AF279DF769}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{476E1658-E14C-4999-A63B-AC499C5972CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{476E1658-E14C-4999-A63B-AC499C5972CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ten-fold cross validation" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">   accuracy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -54,12 +51,6 @@
     <t>mse</t>
   </si>
   <si>
-    <t>rmse</t>
-  </si>
-  <si>
-    <t>mae</t>
-  </si>
-  <si>
     <t>medae</t>
   </si>
   <si>
@@ -124,16 +115,42 @@
   </si>
   <si>
     <t>TP Very High</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Exponential spatial covariance</t>
+  </si>
+  <si>
+    <t>de (nugget effect)</t>
+  </si>
+  <si>
+    <t>ie (partial sill)</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficients on log-odds scale instead of probability scale. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +180,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +237,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -290,24 +350,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,9 +402,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,152 +411,584 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,691 +1304,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0628DE88-7910-4C3B-AD4C-91F8F310C5F6}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="C2" s="24">
+        <v>-2.089596E-4</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.190688</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.32258890000000001</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0.77456429999999998</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0.7158949</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="28">
+        <v>-1.0308129999999999E-5</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.19182779999999999</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.3197564</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.76866659999999998</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.71539419999999998</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="68">
+        <v>-4.038345E-4</v>
+      </c>
+      <c r="D5" s="50">
+        <v>0.16398589999999999</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0.26476230000000001</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0.83103070000000001</v>
+      </c>
+      <c r="G5" s="50">
+        <v>0.76921150000000005</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-9.1991570000000007E-5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.18108920000000001</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.26187700000000003</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.80659840000000005</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.73351279999999996</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="86">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="86">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E7" s="86">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F7" s="86">
+        <v>0.873</v>
+      </c>
+      <c r="G7" s="86">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21">
+        <v>-2.108496E-4</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.17482539999999999</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.2754122</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.81378479999999997</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.75011220000000001</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="65">
+        <v>6.3138669999999997E-5</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.121044</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0.137687</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.91004039999999997</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.82368779999999997</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="47">
+        <v>6.8043209999999995E-4</v>
+      </c>
+      <c r="D10" s="47">
+        <v>0.19486200000000001</v>
+      </c>
+      <c r="E10" s="47">
+        <v>0.37661489999999997</v>
+      </c>
+      <c r="F10" s="47">
+        <v>0.76258340000000002</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0.68730369999999996</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="54">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="35">
-        <v>-2.089596E-4</v>
-      </c>
-      <c r="D2" s="35">
-        <v>0.190688</v>
-      </c>
-      <c r="E2" s="35">
-        <v>0.43667840000000002</v>
-      </c>
-      <c r="F2" s="35">
-        <v>0.36471419999999999</v>
-      </c>
-      <c r="G2" s="35">
-        <v>0.32258890000000001</v>
-      </c>
-      <c r="H2" s="35">
-        <v>0.77456429999999998</v>
-      </c>
-      <c r="I2" s="35">
-        <v>0.7158949</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39">
-        <v>3.521113E-4</v>
-      </c>
-      <c r="D3" s="39">
-        <v>0.17698230000000001</v>
-      </c>
-      <c r="E3" s="39">
-        <v>0.42069260000000003</v>
-      </c>
-      <c r="F3" s="39">
-        <v>0.3308526</v>
-      </c>
-      <c r="G3" s="39">
-        <v>0.28203889999999998</v>
-      </c>
-      <c r="H3" s="39">
-        <v>0.8075772</v>
-      </c>
-      <c r="I3" s="39">
-        <v>0.74142680000000005</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="39">
-        <v>-1.0308129999999999E-5</v>
-      </c>
-      <c r="D4" s="39">
-        <v>0.19182779999999999</v>
-      </c>
-      <c r="E4" s="39">
-        <v>0.43798150000000002</v>
-      </c>
-      <c r="F4" s="39">
-        <v>0.38326110000000002</v>
-      </c>
-      <c r="G4" s="39">
-        <v>0.3197564</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0.76866659999999998</v>
-      </c>
-      <c r="I4" s="39">
-        <v>0.71539419999999998</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="52">
-        <v>-4.038345E-4</v>
-      </c>
-      <c r="D5" s="52">
-        <v>0.16398589999999999</v>
-      </c>
-      <c r="E5" s="52">
-        <v>0.40495170000000003</v>
-      </c>
-      <c r="F5" s="52">
-        <v>0.32788850000000003</v>
-      </c>
-      <c r="G5" s="52">
-        <v>0.26476230000000001</v>
-      </c>
-      <c r="H5" s="52">
-        <v>0.83103070000000001</v>
-      </c>
-      <c r="I5" s="52">
-        <v>0.76921150000000005</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="27">
-        <v>-9.1991570000000007E-5</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0.18108920000000001</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0.42554579999999997</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0.3306192</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0.26187700000000003</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0.80659840000000005</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0.73351279999999996</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="31">
-        <v>-1.2218260000000001E-3</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0.1366069</v>
-      </c>
-      <c r="E7" s="31">
-        <v>0.36960369999999998</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0.254075</v>
-      </c>
-      <c r="G7" s="31">
-        <v>0.16662099999999999</v>
-      </c>
-      <c r="H7" s="31">
-        <v>0.88685720000000001</v>
-      </c>
-      <c r="I7" s="31">
-        <v>0.80529390000000001</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="31">
-        <v>-2.108496E-4</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0.17482539999999999</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0.41812129999999997</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0.35044360000000002</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0.2754122</v>
-      </c>
-      <c r="H8" s="31">
-        <v>0.81378479999999997</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0.75011220000000001</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="43">
-        <v>6.3138669999999997E-5</v>
-      </c>
-      <c r="D9" s="43">
-        <v>0.121044</v>
-      </c>
-      <c r="E9" s="43">
-        <v>0.3479138</v>
-      </c>
-      <c r="F9" s="43">
-        <v>0.2400591</v>
-      </c>
-      <c r="G9" s="43">
-        <v>0.137687</v>
-      </c>
-      <c r="H9" s="43">
-        <v>0.91004039999999997</v>
-      </c>
-      <c r="I9" s="43">
-        <v>0.82368779999999997</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="23">
-        <v>6.8043209999999995E-4</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.19486200000000001</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.44143169999999998</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.38166</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.37661489999999997</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.76258340000000002</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.68730369999999996</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>4.1643849999999996E-3</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.1304274</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.3611473</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.25748779999999999</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.18578919999999999</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0.89455569999999995</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.81022879999999997</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="D11" s="54">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E11" s="54">
+        <v>0.183</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G11" s="87">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15">
         <v>5.8443229999999998E-5</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="15">
         <v>0.20013909999999999</v>
       </c>
-      <c r="E12" s="23">
-        <v>0.44736910000000002</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.40116230000000003</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="E12" s="15">
         <v>0.41298760000000001</v>
       </c>
-      <c r="H12" s="23">
+      <c r="F12" s="15">
         <v>0.7499074</v>
       </c>
-      <c r="I12" s="23">
+      <c r="G12" s="15">
         <v>0.68999549999999998</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="H12" s="74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="49">
         <v>1.6758070000000001E-3</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="48">
         <v>0.12419330000000001</v>
       </c>
-      <c r="E13" s="57">
-        <v>0.35241070000000002</v>
-      </c>
-      <c r="F13" s="57">
-        <v>0.24460779999999999</v>
-      </c>
-      <c r="G13" s="57">
+      <c r="E13" s="48">
         <v>0.1402699</v>
       </c>
-      <c r="H13" s="57">
+      <c r="F13" s="48">
         <v>0.90626280000000004</v>
       </c>
-      <c r="I13" s="57">
+      <c r="G13" s="49">
         <v>0.81561240000000002</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="H13" s="75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
         <v>-1.8224769999999999E-4</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="9">
         <v>0.18734139999999999</v>
       </c>
-      <c r="E14" s="15">
-        <v>0.43282949999999998</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.34362969999999998</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="E14" s="9">
         <v>0.28802860000000002</v>
       </c>
-      <c r="H14" s="15">
+      <c r="F14" s="9">
         <v>0.7946529</v>
       </c>
-      <c r="I14" s="15">
+      <c r="G14" s="9">
         <v>0.7263347</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="19">
-        <v>-2.8787048E-3</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.14998880000000001</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0.38728390000000001</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0.27467320000000001</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0.1979041</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0.86561410000000005</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0.7815164</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="H14" s="76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="88">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D15" s="88">
+        <v>0.153</v>
+      </c>
+      <c r="E15" s="88">
+        <v>0.193</v>
+      </c>
+      <c r="F15" s="88">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="G15" s="88">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="12">
         <v>-1.731305E-4</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="12">
         <v>0.18484999999999999</v>
       </c>
-      <c r="E16" s="19">
-        <v>0.42994179999999999</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0.36938959999999998</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="E16" s="12">
         <v>0.30771949999999998</v>
       </c>
-      <c r="H16" s="19">
+      <c r="F16" s="12">
         <v>0.79256649999999995</v>
       </c>
-      <c r="I16" s="19">
+      <c r="G16" s="12">
         <v>0.73575590000000002</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="60">
         <v>-6.6118670000000004E-4</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="44">
         <v>0.13066749999999999</v>
       </c>
-      <c r="E17" s="60">
-        <v>0.36147960000000001</v>
-      </c>
-      <c r="F17" s="60">
-        <v>0.25995049999999997</v>
-      </c>
-      <c r="G17" s="60">
+      <c r="E17" s="44">
         <v>0.16657910000000001</v>
       </c>
-      <c r="H17" s="60">
+      <c r="F17" s="44">
         <v>0.89570720000000004</v>
       </c>
-      <c r="I17" s="60">
+      <c r="G17" s="44">
         <v>0.81157469999999998</v>
       </c>
-      <c r="J17" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="H17" s="78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
         <v>-2.8802260000000001E-3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>0.15264459999999999</v>
       </c>
-      <c r="E18" s="7">
-        <v>0.39069749999999998</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.2808176</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="E18" s="3">
         <v>0.18443889999999999</v>
       </c>
-      <c r="H18" s="7">
+      <c r="F18" s="3">
         <v>0.77297950000000004</v>
       </c>
-      <c r="I18" s="7">
+      <c r="G18" s="3">
         <v>0.79138629999999999</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>-1.1835419999999999E-2</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.1215126</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.34858660000000002</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.228384</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.13357849999999999</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0.85754439999999998</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0.83580080000000001</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="H18" s="79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="89">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D19" s="89">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E19" s="89">
+        <v>0.127</v>
+      </c>
+      <c r="F19" s="89">
+        <v>0.84</v>
+      </c>
+      <c r="G19" s="89">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6">
         <v>-9.8048389999999994E-5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>0.153833</v>
       </c>
-      <c r="E20" s="11">
-        <v>0.3922156</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0.3079095</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="E20" s="6">
         <v>0.2369347</v>
       </c>
-      <c r="H20" s="11">
+      <c r="F20" s="6">
         <v>0.77797870000000002</v>
       </c>
-      <c r="I20" s="11">
+      <c r="G20" s="6">
         <v>0.76536559999999998</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="47">
+      <c r="H20" s="80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="57">
         <v>2.684133E-3</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="31">
         <v>0.10622470000000001</v>
       </c>
-      <c r="E21" s="47">
-        <v>0.32592130000000002</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0.2114386</v>
-      </c>
-      <c r="G21" s="47">
+      <c r="E21" s="31">
         <v>0.1037732</v>
       </c>
-      <c r="H21" s="47">
+      <c r="F21" s="31">
         <v>0.89061049999999997</v>
       </c>
-      <c r="I21" s="47">
+      <c r="G21" s="31">
         <v>0.86271869999999995</v>
       </c>
-      <c r="J21" s="48" t="s">
-        <v>28</v>
+      <c r="H21" s="81" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1486,207 +1874,440 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB7ED10-01DE-4C50-96CC-9516C33B7BC2}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="177"/>
+      <c r="H1" s="178"/>
+    </row>
+    <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="180"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="174" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="175" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="24">
+        <v>-1.4919999999999999E-2</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="D3" s="82">
+        <v>4.4199999999999999E-8</v>
+      </c>
+      <c r="E3" s="164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="183">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="G3" s="165">
+        <v>1.1050000000000001E-3</v>
+      </c>
+      <c r="H3" s="166">
+        <v>130100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B4" s="28">
+        <v>0.10364</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D4" s="83">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="184"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="91" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="28">
+        <v>0.3871</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.104</v>
+      </c>
+      <c r="D5" s="83">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="184"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
-        <v>-1.4919999999999999E-2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="168">
+        <v>-1.6721999999999999</v>
+      </c>
+      <c r="C6" s="168">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D6" s="169">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="185"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18">
+        <v>-3.109E-2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="D7" s="84">
+        <v>1.3899999999999999E-12</v>
+      </c>
+      <c r="E7" s="154" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="186">
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="G7" s="155">
+        <v>5.9480000000000004E-4</v>
+      </c>
+      <c r="H7" s="156">
+        <v>244700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.21525</v>
+      </c>
+      <c r="C8" s="21">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="D8" s="85">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="187"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="158">
+        <v>0.52400999999999998</v>
+      </c>
+      <c r="C9" s="158">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D9" s="159">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E9" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="188"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.10364</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B10" s="142">
+        <v>7.467E-2</v>
+      </c>
+      <c r="C10" s="142">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="D10" s="143">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="E10" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="189">
+        <v>11.98</v>
+      </c>
+      <c r="G10" s="145">
+        <v>4.2220000000000002E-4</v>
+      </c>
+      <c r="H10" s="146">
+        <v>266100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.3871</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B11" s="100">
+        <v>0.21803</v>
+      </c>
+      <c r="C11" s="100">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D11" s="101">
+        <v>1E-4</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="190"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="148">
+        <v>-2.3085300000000002</v>
+      </c>
+      <c r="C12" s="148">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D12" s="149">
+        <v>3.79E-3</v>
+      </c>
+      <c r="E12" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="191"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="152"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="130">
+        <v>-2.5850000000000001E-2</v>
+      </c>
+      <c r="C13" s="130">
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="D13" s="131">
+        <v>3.1500000000000001E-9</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="192">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G13" s="133">
+        <v>6.2620000000000004E-4</v>
+      </c>
+      <c r="H13" s="134">
+        <v>244700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
-        <v>-1.6721999999999999</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B14" s="106">
+        <v>-4.1599999999999996E-3</v>
+      </c>
+      <c r="C14" s="106">
+        <v>1.33E-3</v>
+      </c>
+      <c r="D14" s="107">
+        <v>1.83E-3</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="193"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>-3.109E-2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B15" s="136">
+        <v>2.0203000000000002</v>
+      </c>
+      <c r="C15" s="136">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D15" s="137">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="E15" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="194"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="124">
+        <v>-1.337E-2</v>
+      </c>
+      <c r="C16" s="124">
+        <v>5.1799999999999997E-3</v>
+      </c>
+      <c r="D16" s="125">
+        <v>9.7900000000000001E-3</v>
+      </c>
+      <c r="E16" s="126" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.21525</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F16" s="195">
+        <v>9.1140000000000008</v>
+      </c>
+      <c r="G16" s="127">
+        <v>2.1249999999999999E-4</v>
+      </c>
+      <c r="H16" s="128">
+        <v>193100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="112">
+        <v>-1.406E-2</v>
+      </c>
+      <c r="C17" s="112">
+        <v>4.9100000000000003E-3</v>
+      </c>
+      <c r="D17" s="113">
+        <v>4.15E-3</v>
+      </c>
+      <c r="E17" s="114" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.52400999999999998</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="F17" s="196"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="118">
+        <v>-0.23979</v>
+      </c>
+      <c r="C18" s="118">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D18" s="119">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E18" s="120" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7.467E-2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.21803</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-2.3085300000000002</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-2.5850000000000001E-2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-4.1599999999999996E-3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.0203000000000002</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-1.337E-2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-1.406E-2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-0.23979</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F18" s="197"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2131,20 +2752,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -2186,6 +2793,20 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E0FB74-9F39-4978-B39A-FBA0B8202951}">
   <ds:schemaRefs>
@@ -2210,9 +2831,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462E3C71-DA63-48C6-8EB4-0863893DBCCC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98317281-7A60-4A60-892E-37B8605B03B1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2226,15 +2853,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98317281-7A60-4A60-892E-37B8605B03B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462E3C71-DA63-48C6-8EB4-0863893DBCCC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="a681de7a-b1b5-4e00-8bbc-1bf10374c8d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>